--- a/data/trans_dic/P37A$medicoedad-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P37A$medicoedad-Clase-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.04746849032355457</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.0969637766674967</v>
+        <v>0.09696377666749667</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.05188357298318636</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02788648567328408</v>
+        <v>0.02730690576928286</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03829466390657245</v>
+        <v>0.03871408806471991</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.05922463919997204</v>
+        <v>0.06071322913449249</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1161957337797551</v>
+        <v>0.1143963931868284</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04082397105876779</v>
+        <v>0.04116186258550969</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.006892756003554894</v>
+        <v>0.006791717401452262</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02564254272954075</v>
+        <v>0.02481950133697346</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.07672998063181277</v>
+        <v>0.07616164755211213</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03681016315987639</v>
+        <v>0.03666443869981038</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.02920159970735987</v>
+        <v>0.03036165455383881</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.05071366803865203</v>
+        <v>0.05154876257132002</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1017729383907455</v>
+        <v>0.1038056070242745</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06687996170597303</v>
+        <v>0.06806237692499734</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.08693196641929588</v>
+        <v>0.08710954946582865</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.11631535922041</v>
+        <v>0.1179748441421319</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1672507405278175</v>
+        <v>0.1659971892829531</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1000602490044619</v>
+        <v>0.09791639784102202</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.04025946848072302</v>
+        <v>0.03981307942641176</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.08476975093308621</v>
+        <v>0.08157820480429963</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.118159005433668</v>
+        <v>0.1197062183607481</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.07139777309618142</v>
+        <v>0.06951131490589899</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.06141211302957744</v>
+        <v>0.0619682931354818</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.09073485287498728</v>
+        <v>0.09007835633612303</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.136895541163119</v>
+        <v>0.136311081222723</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03899257954639029</v>
+        <v>0.03738986124371214</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05126501996873592</v>
+        <v>0.05129906627251338</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.05354591196093828</v>
+        <v>0.05610258090915841</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1160249395225689</v>
+        <v>0.1160146309132535</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.00851684154768342</v>
+        <v>0.008760283810562156</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01466173925182546</v>
+        <v>0.0146834695517484</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01907447064332065</v>
+        <v>0.01760666736580645</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.06552640562399543</v>
+        <v>0.06624170812146003</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02759745146688516</v>
+        <v>0.02850783905568265</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.04019743054199874</v>
+        <v>0.04029443913847403</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.0408561688767054</v>
+        <v>0.04195882889878048</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1005944231879729</v>
+        <v>0.09993680986916188</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.09068557084796366</v>
+        <v>0.08581293591540821</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.113386791977912</v>
+        <v>0.1110255617015939</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1092953206338155</v>
+        <v>0.1141324735735999</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1710191913625886</v>
+        <v>0.1738212145975556</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03883112289780828</v>
+        <v>0.03991025375433278</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.05368552104047664</v>
+        <v>0.05508552500720759</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05774660157304953</v>
+        <v>0.06066128116393719</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1074724783800107</v>
+        <v>0.106972629036901</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.0569475215076246</v>
+        <v>0.05829668473444074</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.07676716431655513</v>
+        <v>0.08069012605780945</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.07589352520316103</v>
+        <v>0.07800205873599129</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1341705452940314</v>
+        <v>0.1362773074923351</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.1133906410615724</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.2329688200898771</v>
+        <v>0.232968820089877</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.05624560347394843</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03905318029845699</v>
+        <v>0.03964918451386708</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.06300831530663364</v>
+        <v>0.06464014099860502</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.07912463082129642</v>
+        <v>0.07899574010391466</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1183480790600258</v>
+        <v>0.1189829501873548</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02909966029492531</v>
+        <v>0.02483947492916421</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04281515617639978</v>
+        <v>0.04170569122995841</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.06271777476586857</v>
+        <v>0.06132663683918135</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1850812309488121</v>
+        <v>0.188190728569871</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0400920500187968</v>
+        <v>0.04202389934156232</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.06353390139023794</v>
+        <v>0.06338844629871235</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.08355198758093325</v>
+        <v>0.08207697394514293</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1487862572727243</v>
+        <v>0.1480864853181348</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07745018800422532</v>
+        <v>0.08151928352597254</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1127766401205852</v>
+        <v>0.1113643710170496</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1324964161409484</v>
+        <v>0.1309342457718959</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1766550958919894</v>
+        <v>0.176069985124955</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1007438599017333</v>
+        <v>0.09723433567198281</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1087722597705556</v>
+        <v>0.1059104705837104</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1774249605001361</v>
+        <v>0.1771713721368374</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2805471608642234</v>
+        <v>0.2901028273559656</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.07551714669387971</v>
+        <v>0.0745721480076334</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1012112122685586</v>
+        <v>0.1020793445188914</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1310404789738072</v>
+        <v>0.1296913705845184</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1981057628007568</v>
+        <v>0.1954806995545472</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06948568975921716</v>
+        <v>0.06973737180632371</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.09525170683075988</v>
+        <v>0.09581422164971566</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.07823649377444938</v>
+        <v>0.07820615974081929</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.13097989043727</v>
+        <v>0.1300501322251451</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.03847992310065662</v>
+        <v>0.03876082902645981</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02978501349949689</v>
+        <v>0.02986473346772322</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.04775779596749991</v>
+        <v>0.04797193747421376</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.09311290795362559</v>
+        <v>0.0914713656706377</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.06276063663582256</v>
+        <v>0.06198545522780436</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.07200082648796452</v>
+        <v>0.07299035119913824</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.06897928198400738</v>
+        <v>0.07049286651752862</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.117652323849976</v>
+        <v>0.1177006131053755</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1002089775088975</v>
+        <v>0.09837938254101511</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1321759524938965</v>
+        <v>0.1324423836758838</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1122559106333431</v>
+        <v>0.111802377349231</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1690338860525138</v>
+        <v>0.1680325365476265</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.07269603023232613</v>
+        <v>0.07372095086060453</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.06070838464124001</v>
+        <v>0.06231220062911066</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.08378351812049031</v>
+        <v>0.08648354703731456</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1222143747968422</v>
+        <v>0.12244679074983</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.08449069176138441</v>
+        <v>0.08539085678782747</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.09830780668329793</v>
+        <v>0.09936807806714804</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.09441662244735376</v>
+        <v>0.09391942431566061</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1420385775105506</v>
+        <v>0.1430910411751111</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.05738891499885544</v>
+        <v>0.06016262569473235</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1039902571725623</v>
+        <v>0.1053036901231435</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1030678109196543</v>
+        <v>0.101225436478107</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.09881286464365474</v>
+        <v>0.09761196987222205</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.0619384822221605</v>
+        <v>0.06106014095583644</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.09410392698040118</v>
+        <v>0.09436465414640385</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.08152279070933584</v>
+        <v>0.08217084313860576</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1674954846593062</v>
+        <v>0.1665217310627462</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.06726068791152141</v>
+        <v>0.06677046537209612</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1054973884498595</v>
+        <v>0.1055372534214949</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.09930676141688261</v>
+        <v>0.09758680101461258</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1444534264037446</v>
+        <v>0.1460273123280749</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.118390717775131</v>
+        <v>0.1204727089736814</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1660035354744937</v>
+        <v>0.1642885384713439</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.153938447869688</v>
+        <v>0.1527215463725232</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1447287436122362</v>
+        <v>0.1462825616179824</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1103386066092515</v>
+        <v>0.1074661312545249</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1410741087460159</v>
+        <v>0.1411958722653765</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1288630172706358</v>
+        <v>0.1324922078267836</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2079897983125164</v>
+        <v>0.2061484839359035</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1045819194454025</v>
+        <v>0.1023992115369925</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.14410848109043</v>
+        <v>0.1433364296308844</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1335640224372019</v>
+        <v>0.1341974441694322</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.174779500751909</v>
+        <v>0.1759303521781369</v>
       </c>
     </row>
     <row r="19">
@@ -1391,37 +1391,37 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.007164362493437769</v>
+        <v>0.007312192514443662</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.00349362905163277</v>
+        <v>0.00355639160674879</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.006295187911855003</v>
+        <v>0.00647055089626506</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1445006442045897</v>
+        <v>0.1442636308246075</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1667130993930534</v>
+        <v>0.1676701639975946</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1602602280796808</v>
+        <v>0.1608534328547243</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2315413055868999</v>
+        <v>0.2323848558909752</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.117796778904631</v>
+        <v>0.1169072243192792</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1351373782668265</v>
+        <v>0.1372390929632586</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1262602537898793</v>
+        <v>0.1270309788403815</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1835519592851686</v>
+        <v>0.1829245528433054</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.01490499643558195</v>
+        <v>0.0137897778256771</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.03997520924697937</v>
+        <v>0.04107854241309322</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.031230868553249</v>
+        <v>0.03662718016982757</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.0390684927720617</v>
+        <v>0.03781381158507758</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1860215202356645</v>
+        <v>0.1853408617402376</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2149977076156969</v>
+        <v>0.2166542023805517</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2116130704316152</v>
+        <v>0.2110394354878232</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2823302239133695</v>
+        <v>0.2835547726633124</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1521300924926838</v>
+        <v>0.153265045368848</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1764524233758576</v>
+        <v>0.1780623852613626</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1689471361444046</v>
+        <v>0.1693827295846153</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2264221427742701</v>
+        <v>0.2281260806642923</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.05580951642417161</v>
+        <v>0.05536862872634227</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.08259919537883308</v>
+        <v>0.08145499488107945</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.08107253875354151</v>
+        <v>0.08165365049733281</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.122276830068195</v>
+        <v>0.1215279211031131</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.08689783868773282</v>
+        <v>0.08749546016199662</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.09325392553316264</v>
+        <v>0.09310702716700552</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.09613535903251151</v>
+        <v>0.09576598895603014</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1537585040823549</v>
+        <v>0.1529746195337713</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.07372154441552767</v>
+        <v>0.07476482592358627</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.09051516468364081</v>
+        <v>0.09048318888741119</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.09161304116335016</v>
+        <v>0.09202804651187092</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1409273936944256</v>
+        <v>0.1408077582172238</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.07271887126806938</v>
+        <v>0.07239475117299073</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1025457905308508</v>
+        <v>0.1035388671425758</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1001360733487512</v>
+        <v>0.1012904922886014</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.142648549203877</v>
+        <v>0.1415502490913688</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.107338272731757</v>
+        <v>0.1087839234770764</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.114211237433868</v>
+        <v>0.1145044844380001</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1175115272276081</v>
+        <v>0.1184191029233349</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1730598582770738</v>
+        <v>0.1722555456668625</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.08718165912326792</v>
+        <v>0.08827719236596433</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1052458175518414</v>
+        <v>0.104787425922294</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1070153822986502</v>
+        <v>0.1080518333395899</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1547455389282562</v>
+        <v>0.1552906600003182</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>13212</v>
+        <v>12937</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>16743</v>
+        <v>16926</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>25413</v>
+        <v>26052</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>63979</v>
+        <v>62989</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>12520</v>
+        <v>12624</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2167</v>
+        <v>2136</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>8899</v>
+        <v>8614</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>37476</v>
+        <v>37198</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>28729</v>
+        <v>28615</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>21950</v>
+        <v>22822</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>39361</v>
+        <v>40009</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>105745</v>
+        <v>107857</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>31686</v>
+        <v>32246</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>38008</v>
+        <v>38085</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>49910</v>
+        <v>50622</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>92091</v>
+        <v>91401</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>30686</v>
+        <v>30029</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>12660</v>
+        <v>12519</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>29420</v>
+        <v>28312</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>57710</v>
+        <v>58466</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>55723</v>
+        <v>54251</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>46161</v>
+        <v>46579</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>70424</v>
+        <v>69914</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>142238</v>
+        <v>141631</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>14308</v>
+        <v>13720</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>21470</v>
+        <v>21484</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>20199</v>
+        <v>21163</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>56065</v>
+        <v>56060</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>3167</v>
+        <v>3258</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>4956</v>
+        <v>4963</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>7101</v>
+        <v>6554</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>27727</v>
+        <v>28030</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>20389</v>
+        <v>21062</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>30422</v>
+        <v>30495</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>30622</v>
+        <v>31448</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>91174</v>
+        <v>90578</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>33276</v>
+        <v>31488</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>47486</v>
+        <v>46497</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>41229</v>
+        <v>43054</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>82639</v>
+        <v>83992</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>14440</v>
+        <v>14841</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>18146</v>
+        <v>18620</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>21498</v>
+        <v>22583</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>45476</v>
+        <v>45265</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>42073</v>
+        <v>43070</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>58098</v>
+        <v>61067</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>56882</v>
+        <v>58463</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>121606</v>
+        <v>123516</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>21182</v>
+        <v>21505</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>39658</v>
+        <v>40685</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>41296</v>
+        <v>41229</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>55814</v>
+        <v>56114</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>4882</v>
+        <v>4168</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>11137</v>
+        <v>10849</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>10419</v>
+        <v>10188</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>34702</v>
+        <v>35285</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>28472</v>
+        <v>29844</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>56516</v>
+        <v>56387</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>57487</v>
+        <v>56472</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>98066</v>
+        <v>97605</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>42008</v>
+        <v>44215</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>70983</v>
+        <v>70094</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>69152</v>
+        <v>68336</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>83313</v>
+        <v>83037</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>16903</v>
+        <v>16314</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>28295</v>
+        <v>27550</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>29474</v>
+        <v>29432</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>52602</v>
+        <v>54393</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>53630</v>
+        <v>52959</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>90032</v>
+        <v>90804</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>90161</v>
+        <v>89232</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>130573</v>
+        <v>128843</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>86046</v>
+        <v>86358</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>110398</v>
+        <v>111050</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>89944</v>
+        <v>89909</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>148249</v>
+        <v>147196</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>27486</v>
+        <v>27686</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>22835</v>
+        <v>22896</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>39442</v>
+        <v>39619</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>80190</v>
+        <v>78776</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>122548</v>
+        <v>121034</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>138650</v>
+        <v>140555</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>136270</v>
+        <v>139260</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>234487</v>
+        <v>234584</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>124092</v>
+        <v>121827</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>153193</v>
+        <v>153502</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>129054</v>
+        <v>128532</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>191320</v>
+        <v>190186</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>51926</v>
+        <v>52658</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>46543</v>
+        <v>47772</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>69195</v>
+        <v>71425</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>105252</v>
+        <v>105453</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>164978</v>
+        <v>166736</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>189308</v>
+        <v>191350</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>186521</v>
+        <v>185539</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>283091</v>
+        <v>285188</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>20118</v>
+        <v>21090</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>53097</v>
+        <v>53768</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>63975</v>
+        <v>62831</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>56122</v>
+        <v>55440</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>35228</v>
+        <v>34728</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>71662</v>
+        <v>71861</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>60184</v>
+        <v>60662</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>139164</v>
+        <v>138355</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>61833</v>
+        <v>61383</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>134205</v>
+        <v>134256</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>134953</v>
+        <v>132616</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>202063</v>
+        <v>204265</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>41502</v>
+        <v>42232</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>84761</v>
+        <v>83885</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>95551</v>
+        <v>94795</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>82201</v>
+        <v>83083</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>62755</v>
+        <v>61122</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>107431</v>
+        <v>107524</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>95132</v>
+        <v>97812</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>172808</v>
+        <v>171278</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>96143</v>
+        <v>94136</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>183323</v>
+        <v>182341</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>181507</v>
+        <v>182368</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>244484</v>
+        <v>246094</v>
       </c>
     </row>
     <row r="24">
@@ -2777,37 +2777,37 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>1912</v>
+        <v>1951</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1003</v>
+        <v>1021</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>1493</v>
+        <v>1535</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>180447</v>
+        <v>180151</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>184943</v>
+        <v>186005</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>173406</v>
+        <v>174047</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>195486</v>
+        <v>196198</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>182227</v>
+        <v>180851</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>185981</v>
+        <v>188873</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>172872</v>
+        <v>173927</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>198513</v>
+        <v>197835</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>4445</v>
+        <v>4112</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>10669</v>
+        <v>10963</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>8968</v>
+        <v>10517</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>9268</v>
+        <v>8970</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>232296</v>
+        <v>231446</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>238508</v>
+        <v>240346</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>228971</v>
+        <v>228350</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>238366</v>
+        <v>239400</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>235339</v>
+        <v>237095</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>242840</v>
+        <v>245055</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>231317</v>
+        <v>231914</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>244878</v>
+        <v>246720</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>182508</v>
+        <v>181066</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>282647</v>
+        <v>278732</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>274489</v>
+        <v>276457</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>420935</v>
+        <v>418357</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>293552</v>
+        <v>295571</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>331063</v>
+        <v>330542</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>339511</v>
+        <v>338207</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>558973</v>
+        <v>556123</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>490124</v>
+        <v>497060</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>631075</v>
+        <v>630852</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>633717</v>
+        <v>636587</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>997466</v>
+        <v>996619</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>237805</v>
+        <v>236745</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>350902</v>
+        <v>354301</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>339033</v>
+        <v>342941</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>491064</v>
+        <v>487283</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>362602</v>
+        <v>367486</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>405464</v>
+        <v>406505</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>415003</v>
+        <v>418208</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>629141</v>
+        <v>626217</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>579611</v>
+        <v>586894</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>733778</v>
+        <v>730582</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>740259</v>
+        <v>747429</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>1095269</v>
+        <v>1099127</v>
       </c>
     </row>
     <row r="32">
